--- a/clipping_interessados_teste.xlsx
+++ b/clipping_interessados_teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustocba\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielag\Documents\GitHub\Clipping_diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE57FA35-64E3-4104-A330-239D7DE3F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C2005-F204-4D59-9005-60DEABCCA7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{A8A3F71A-1686-41A8-B81C-94859927A600}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11385" xr2:uid="{A8A3F71A-1686-41A8-B81C-94859927A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>setor_sigla</t>
   </si>
@@ -65,20 +65,17 @@
     <t>Coordenadoria de Auditoria de Políticas em Educação, Cultura, Ciência e Tecnologia</t>
   </si>
   <si>
-    <t>augustocba@tcerj.tc.br;AlbertoFT@tcerj.tc.br;AnaFB@tcerj.tc.br;RafaelGC@tcerj.tc.br</t>
-  </si>
-  <si>
-    <t>augustocba@tcerj.tc.br;AlbertoFT@tcerj.tc.br;BrunoSM@tcerj.tc.br;gabrielag@tcerj.tc.br;JoaoPFR@tcerj.tc.br;joaopolr@tcerj.tc.br;andersonfas@tcerj.tc.br;brennobr@tcerj.tc.br;claudiobr@tcerj.tc.br;RafaelAC@tcerj.tc.br;AnaFB@tcerj.tc.br;RafaelGC@tcerj.tc.br</t>
-  </si>
-  <si>
     <t>São considerados de interesse da CAD-TI as informações que tratem de soluções de tecnologia da informação e comunicação – TIC, a exemplo de computadores, desktops, notebooks, tablets, monitores, impressoras, processamento de dados, banco de dados, SGBD, gestão de dados, governança de dados, desenvolvimento e manutenção de sistemas, fábrica de software, aplicativos móveis, softwares de prateleira, sistemas legados, softwares como serviço (SaaS), computação em nuvem (IaaS, PaaS, DBaaS), inteligência artificial, large language model - LLM, business intelligence - BI, big data, aprendizado de máquina, serviços de hospedagem de sistemas, operação e suporte técnico, outsourcing de TI, serviços de microinformática, helpdesk, links de dados, internet, soluções de videoconferência, redes de computadores, segurança da informação, segurança cibernética, gestão de vulnerabilidades, testes de intrusão, pentest, tratamento de incidentes, segurança de redes, SOC, firewalls, criptografia, consultoria em TIC,  consultoria em segurança, digitalização de documentos, soluções de IoT integradas a sistemas, além de ambientes de virtualização, data centers e serviços correlatos.</t>
+  </si>
+  <si>
+    <t>gabrielag@tcerj.tc.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +85,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
@@ -116,9 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -457,7 +462,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,16 +508,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{97A3BB0A-3AF1-4258-AE7E-814E4178A088}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{AFF2A85E-2633-4BD5-97C8-D38433E22267}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{AFF2A85E-2633-4BD5-97C8-D38433E22267}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{BC0B5647-EE72-4DE5-8E47-97FDAA33D221}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/clipping_interessados_teste.xlsx
+++ b/clipping_interessados_teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielag\Documents\GitHub\Clipping_diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C2005-F204-4D59-9005-60DEABCCA7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC9B59-4EBD-4BA5-940C-8C2E73A735E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11385" xr2:uid="{A8A3F71A-1686-41A8-B81C-94859927A600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A8A3F71A-1686-41A8-B81C-94859927A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>setor_sigla</t>
   </si>
@@ -47,9 +47,6 @@
     <t>setor_interesse</t>
   </si>
   <si>
-    <t>destinatarios</t>
-  </si>
-  <si>
     <t>CAD-Educação</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>São considerados de interesse da CAD-TI as informações que tratem de soluções de tecnologia da informação e comunicação – TIC, a exemplo de computadores, desktops, notebooks, tablets, monitores, impressoras, processamento de dados, banco de dados, SGBD, gestão de dados, governança de dados, desenvolvimento e manutenção de sistemas, fábrica de software, aplicativos móveis, softwares de prateleira, sistemas legados, softwares como serviço (SaaS), computação em nuvem (IaaS, PaaS, DBaaS), inteligência artificial, large language model - LLM, business intelligence - BI, big data, aprendizado de máquina, serviços de hospedagem de sistemas, operação e suporte técnico, outsourcing de TI, serviços de microinformática, helpdesk, links de dados, internet, soluções de videoconferência, redes de computadores, segurança da informação, segurança cibernética, gestão de vulnerabilidades, testes de intrusão, pentest, tratamento de incidentes, segurança de redes, SOC, firewalls, criptografia, consultoria em TIC,  consultoria em segurança, digitalização de documentos, soluções de IoT integradas a sistemas, além de ambientes de virtualização, data centers e serviços correlatos.</t>
-  </si>
-  <si>
-    <t>gabrielag@tcerj.tc.br</t>
   </si>
 </sst>
 </file>
@@ -462,7 +456,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D4" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,43 +476,32 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{AFF2A85E-2633-4BD5-97C8-D38433E22267}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{BC0B5647-EE72-4DE5-8E47-97FDAA33D221}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>